--- a/CoreRulebook/Data/Statuses.xlsx
+++ b/CoreRulebook/Data/Statuses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88515DE2-75B3-4888-A35B-9BEDBA7758BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9BF274-4121-4093-A212-DF1AF09C21A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -156,9 +164,6 @@
   </si>
   <si>
     <t>Critical (But Stable)</t>
-  </si>
-  <si>
-    <t>All subsequent resist checks automatically fail</t>
   </si>
   <si>
     <t xml:space="preserve">Can attempt to snap out of confusion once per turn by repeforming the original Resist check. </t>
@@ -362,6 +367,33 @@
 6: Dead   &amp; Character Death
 \end{tabular}
 These effects are compounding, so a Lethargic character has disadvantage on checks, as well as having their speed halved. </t>
+  </si>
+  <si>
+    <t>Encumbered</t>
+  </si>
+  <si>
+    <t>Being is overloaded by too many heavy objects</t>
+  </si>
+  <si>
+    <t>Gain one exhaustion level for every kilometre moved whilst encumbered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All movement speeds reduced to 25\% of their normal value, and Dodge stat reduced to half its normal value. </t>
+  </si>
+  <si>
+    <t>Distracted</t>
+  </si>
+  <si>
+    <t>The next attack on you is considered a {\it Critical Strike}.</t>
+  </si>
+  <si>
+    <t>Confused entities are considered {\it Distracted}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When taking damage, you must succeed a DV10 Spirit (Willpower) check, or halt all actions this turn. </t>
+  </si>
+  <si>
+    <t>Take check-disadvantage on all rolls.</t>
   </si>
 </sst>
 </file>
@@ -836,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -873,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
@@ -890,7 +922,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>22</v>
@@ -949,7 +981,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -982,10 +1014,13 @@
         <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -993,10 +1028,10 @@
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -1004,16 +1039,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1021,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="300" x14ac:dyDescent="0.2">
@@ -1035,29 +1070,29 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -1065,27 +1100,27 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1093,80 +1128,80 @@
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1174,13 +1209,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -1188,10 +1223,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1199,33 +1234,58 @@
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>86</v>
+    </row>
+    <row r="29" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Statuses.xlsx
+++ b/CoreRulebook/Data/Statuses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9BF274-4121-4093-A212-DF1AF09C21A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8F0B96-A784-4785-B7D7-35A46BFAD490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>Prone Position</t>
-  </si>
-  <si>
-    <t>A mild poison causes you to vomit if you overexert yourself</t>
   </si>
   <si>
     <t xml:space="preserve">Athletics attribute takes a 4 point penalty. </t>
@@ -394,6 +391,12 @@
   </si>
   <si>
     <t>Take check-disadvantage on all rolls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athletics attribute takes an 8 point penalty (min 0). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mild poison causes you to vomit if you overexert yourself: beings cannot take full-turn movements without passing a DV15 Vitality check. </t>
   </si>
 </sst>
 </file>
@@ -871,8 +874,8 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -981,7 +984,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -1014,10 +1017,10 @@
         <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1031,7 +1034,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -1045,7 +1048,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>46</v>
@@ -1070,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -1092,7 +1095,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -1114,13 +1117,13 @@
     </row>
     <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1139,13 +1142,13 @@
     </row>
     <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -1153,13 +1156,13 @@
         <v>66</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -1167,13 +1170,19 @@
         <v>67</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1181,16 +1190,16 @@
         <v>71</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -1223,10 +1232,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1234,58 +1243,58 @@
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="C30" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Statuses.xlsx
+++ b/CoreRulebook/Data/Statuses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8F0B96-A784-4785-B7D7-35A46BFAD490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB4482D-CACB-42DA-9E90-E6715F59CDA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,9 +53,6 @@
     <t>Broken Bone</t>
   </si>
   <si>
-    <t>Broken Wand</t>
-  </si>
-  <si>
     <t>Calm Mind</t>
   </si>
   <si>
@@ -127,12 +124,6 @@
     <t xml:space="preserve">If left to naturally heal, there is a 50\% chance it will set incorrectly, giving permanent check disadvantage until this is rectified. </t>
   </si>
   <si>
-    <t>All casting checks using the wand take a -5 penalty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wand needs repairing by a master of wandlore. </t>
-  </si>
-  <si>
     <t>Burned: Severe</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
   </si>
   <si>
     <t>A mild burn leaves one weak against future changes in temperature</t>
-  </si>
-  <si>
-    <t>Spell failures are particularly severe</t>
   </si>
   <si>
     <t>Fire and Cold damage are 50\% as effective.</t>
@@ -397,6 +385,18 @@
   </si>
   <si>
     <t xml:space="preserve">A mild poison causes you to vomit if you overexert yourself: beings cannot take full-turn movements without passing a DV15 Vitality check. </t>
+  </si>
+  <si>
+    <t>Enraged</t>
+  </si>
+  <si>
+    <t>Become mindlessly furious, and perceive all beings as hostile to you.</t>
+  </si>
+  <si>
+    <t>All actions must be spent performing attacks on the nearest living (or unliving) being to you, or moving into a position where you can attack them.</t>
+  </si>
+  <si>
+    <t>The GM reserves the right to take control of your character for the duration of the effect</t>
   </si>
 </sst>
 </file>
@@ -874,8 +874,8 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -902,19 +902,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -922,13 +922,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
@@ -936,340 +936,340 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="300" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="B13" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="300" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>48</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>100</v>
+      <c r="B20" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>112</v>
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>89</v>
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1282,24 +1282,24 @@
       <c r="C29" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{E46CE5F4-BE20-46CC-AF9C-6BF89A0AB93F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
